--- a/Dataset/WorldCups.xlsx
+++ b/Dataset/WorldCups.xlsx
@@ -5,24 +5,21 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Data Analyst\Avijit Sir\Streamlit_FIFA\Dataset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Snehasish\Downloads\Dataset-20220706T152123Z-001\Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7500"/>
   </bookViews>
   <sheets>
     <sheet name="WorldCups" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">WorldCups!$A$1:$K$21</definedName>
-  </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="39">
   <si>
     <t>Year</t>
   </si>
@@ -33,6 +30,9 @@
     <t>Winner</t>
   </si>
   <si>
+    <t>Runners-Up</t>
+  </si>
+  <si>
     <t>Third</t>
   </si>
   <si>
@@ -136,12 +136,6 @@
   </si>
   <si>
     <t>South Africa</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>RunnersUp</t>
   </si>
 </sst>
 </file>
@@ -625,9 +619,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -949,10 +942,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -967,62 +960,58 @@
     <col min="8" max="8" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1930</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2">
         <v>70</v>
@@ -1036,29 +1025,25 @@
       <c r="J2">
         <v>590549</v>
       </c>
-      <c r="K2" t="b">
-        <f>EXACT(B2,C2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1934</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G3">
         <v>70</v>
@@ -1072,29 +1057,25 @@
       <c r="J3">
         <v>363000</v>
       </c>
-      <c r="K3" t="b">
-        <f t="shared" ref="K3:K21" si="0">EXACT(B3,C3)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1938</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G4">
         <v>84</v>
@@ -1108,29 +1089,25 @@
       <c r="J4">
         <v>375700</v>
       </c>
-      <c r="K4" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1950</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G5">
         <v>88</v>
@@ -1144,29 +1121,25 @@
       <c r="J5">
         <v>1045246</v>
       </c>
-      <c r="K5" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1954</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G6">
         <v>140</v>
@@ -1180,29 +1153,25 @@
       <c r="J6">
         <v>768607</v>
       </c>
-      <c r="K6" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1958</v>
       </c>
       <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
         <v>20</v>
       </c>
-      <c r="C7" t="s">
-        <v>19</v>
-      </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G7">
         <v>126</v>
@@ -1216,29 +1185,25 @@
       <c r="J7">
         <v>819810</v>
       </c>
-      <c r="K7" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1962</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8">
         <v>89</v>
@@ -1252,29 +1217,25 @@
       <c r="J8">
         <v>893172</v>
       </c>
-      <c r="K8" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1966</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G9">
         <v>89</v>
@@ -1288,29 +1249,25 @@
       <c r="J9">
         <v>1563135</v>
       </c>
-      <c r="K9" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1970</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G10">
         <v>95</v>
@@ -1324,29 +1281,25 @@
       <c r="J10">
         <v>1603975</v>
       </c>
-      <c r="K10" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1974</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G11">
         <v>97</v>
@@ -1360,29 +1313,25 @@
       <c r="J11">
         <v>1865753</v>
       </c>
-      <c r="K11" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1978</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G12">
         <v>102</v>
@@ -1396,29 +1345,25 @@
       <c r="J12">
         <v>1545791</v>
       </c>
-      <c r="K12" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1982</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G13">
         <v>146</v>
@@ -1432,29 +1377,25 @@
       <c r="J13">
         <v>2109723</v>
       </c>
-      <c r="K13" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1986</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G14">
         <v>132</v>
@@ -1468,29 +1409,25 @@
       <c r="J14">
         <v>2394031</v>
       </c>
-      <c r="K14" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1990</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G15">
         <v>115</v>
@@ -1504,29 +1441,25 @@
       <c r="J15">
         <v>2516215</v>
       </c>
-      <c r="K15" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1994</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G16">
         <v>141</v>
@@ -1540,29 +1473,25 @@
       <c r="J16">
         <v>3587538</v>
       </c>
-      <c r="K16" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1998</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G17">
         <v>171</v>
@@ -1576,29 +1505,25 @@
       <c r="J17">
         <v>2785100</v>
       </c>
-      <c r="K17" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2002</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D18" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G18">
         <v>161</v>
@@ -1612,29 +1537,25 @@
       <c r="J18">
         <v>2705197</v>
       </c>
-      <c r="K18" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2006</v>
       </c>
       <c r="B19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G19">
         <v>147</v>
@@ -1648,29 +1569,25 @@
       <c r="J19">
         <v>3359439</v>
       </c>
-      <c r="K19" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2010</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C20" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E20" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G20">
         <v>145</v>
@@ -1684,29 +1601,25 @@
       <c r="J20">
         <v>3178856</v>
       </c>
-      <c r="K20" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2014</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F21" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G21">
         <v>171</v>
@@ -1720,13 +1633,8 @@
       <c r="J21">
         <v>3386810</v>
       </c>
-      <c r="K21" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>